--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H2">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I2">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J2">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>31.3689508115999</v>
+        <v>0.09233266666666667</v>
       </c>
       <c r="N2">
-        <v>31.3689508115999</v>
+        <v>0.276998</v>
       </c>
       <c r="O2">
-        <v>0.9861974251902772</v>
+        <v>0.002874858548413657</v>
       </c>
       <c r="P2">
-        <v>0.9861974251902772</v>
+        <v>0.002874858548413658</v>
       </c>
       <c r="Q2">
-        <v>74.84854689210174</v>
+        <v>0.8409723605091112</v>
       </c>
       <c r="R2">
-        <v>74.84854689210174</v>
+        <v>7.568751244582001</v>
       </c>
       <c r="S2">
-        <v>0.0004015756821058243</v>
+        <v>4.456215271650126E-06</v>
       </c>
       <c r="T2">
-        <v>0.0004015756821058243</v>
+        <v>4.456215271650126E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H3">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I3">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J3">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.439032063175467</v>
+        <v>31.51785566666667</v>
       </c>
       <c r="N3">
-        <v>0.439032063175467</v>
+        <v>94.553567</v>
       </c>
       <c r="O3">
-        <v>0.01380257480972275</v>
+        <v>0.9813360759751099</v>
       </c>
       <c r="P3">
-        <v>0.01380257480972275</v>
+        <v>0.98133607597511</v>
       </c>
       <c r="Q3">
-        <v>1.047561716841785</v>
+        <v>287.0668251559448</v>
       </c>
       <c r="R3">
-        <v>1.047561716841785</v>
+        <v>2583.601426403503</v>
       </c>
       <c r="S3">
-        <v>5.620353747082289E-06</v>
+        <v>0.001521133904412282</v>
       </c>
       <c r="T3">
-        <v>5.620353747082289E-06</v>
+        <v>0.001521133904412283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5768.50180271428</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H4">
-        <v>5768.50180271428</v>
+        <v>27.324209</v>
       </c>
       <c r="I4">
-        <v>0.9844262684733377</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J4">
-        <v>0.9844262684733377</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>31.3689508115999</v>
+        <v>0.02446166666666667</v>
       </c>
       <c r="N4">
-        <v>31.3689508115999</v>
+        <v>0.07338500000000001</v>
       </c>
       <c r="O4">
-        <v>0.9861974251902772</v>
+        <v>0.0007616354434881705</v>
       </c>
       <c r="P4">
-        <v>0.9861974251902772</v>
+        <v>0.0007616354434881706</v>
       </c>
       <c r="Q4">
-        <v>180951.8493059696</v>
+        <v>0.2227985641627778</v>
       </c>
       <c r="R4">
-        <v>180951.8493059696</v>
+        <v>2.005187077465</v>
       </c>
       <c r="S4">
-        <v>0.9708386512580782</v>
+        <v>1.18058382266314E-06</v>
       </c>
       <c r="T4">
-        <v>0.9708386512580782</v>
+        <v>1.18058382266314E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5768.50180271428</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H5">
-        <v>5768.50180271428</v>
+        <v>27.324209</v>
       </c>
       <c r="I5">
-        <v>0.9844262684733377</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J5">
-        <v>0.9844262684733377</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.439032063175467</v>
+        <v>0.4826403333333333</v>
       </c>
       <c r="N5">
-        <v>0.439032063175467</v>
+        <v>1.447921</v>
       </c>
       <c r="O5">
-        <v>0.01380257480972275</v>
+        <v>0.01502743003298815</v>
       </c>
       <c r="P5">
-        <v>0.01380257480972275</v>
+        <v>0.01502743003298815</v>
       </c>
       <c r="Q5">
-        <v>2532.557247877051</v>
+        <v>4.395921779943222</v>
       </c>
       <c r="R5">
-        <v>2532.557247877051</v>
+        <v>39.563296019489</v>
       </c>
       <c r="S5">
-        <v>0.01358761721525945</v>
+        <v>2.329348108052376E-05</v>
       </c>
       <c r="T5">
-        <v>0.01358761721525945</v>
+        <v>2.329348108052377E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.990989414691807</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H6">
-        <v>0.990989414691807</v>
+        <v>17315.620606</v>
       </c>
       <c r="I6">
-        <v>0.000169117744080898</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J6">
-        <v>0.000169117744080898</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>31.3689508115999</v>
+        <v>0.09233266666666667</v>
       </c>
       <c r="N6">
-        <v>31.3689508115999</v>
+        <v>0.276998</v>
       </c>
       <c r="O6">
-        <v>0.9861974251902772</v>
+        <v>0.002874858548413657</v>
       </c>
       <c r="P6">
-        <v>0.9861974251902772</v>
+        <v>0.002874858548413658</v>
       </c>
       <c r="Q6">
-        <v>31.08629820428347</v>
+        <v>532.9324751800876</v>
       </c>
       <c r="R6">
-        <v>31.08629820428347</v>
+        <v>4796.392276620789</v>
       </c>
       <c r="S6">
-        <v>0.0001667834837665699</v>
+        <v>0.00282394754712046</v>
       </c>
       <c r="T6">
-        <v>0.0001667834837665699</v>
+        <v>0.002823947547120461</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.990989414691807</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H7">
-        <v>0.990989414691807</v>
+        <v>17315.620606</v>
       </c>
       <c r="I7">
-        <v>0.000169117744080898</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J7">
-        <v>0.000169117744080898</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.439032063175467</v>
+        <v>31.51785566666667</v>
       </c>
       <c r="N7">
-        <v>0.439032063175467</v>
+        <v>94.553567</v>
       </c>
       <c r="O7">
-        <v>0.01380257480972275</v>
+        <v>0.9813360759751099</v>
       </c>
       <c r="P7">
-        <v>0.01380257480972275</v>
+        <v>0.98133607597511</v>
       </c>
       <c r="Q7">
-        <v>0.4350761273171925</v>
+        <v>181917.0770128891</v>
       </c>
       <c r="R7">
-        <v>0.4350761273171925</v>
+        <v>1637253.693116002</v>
       </c>
       <c r="S7">
-        <v>2.334260314328141E-06</v>
+        <v>0.9639575506001491</v>
       </c>
       <c r="T7">
-        <v>2.334260314328141E-06</v>
+        <v>0.9639575506001493</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>87.8812706229666</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H8">
-        <v>87.8812706229666</v>
+        <v>17315.620606</v>
       </c>
       <c r="I8">
-        <v>0.01499741774672851</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J8">
-        <v>0.01499741774672851</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>31.3689508115999</v>
+        <v>0.02446166666666667</v>
       </c>
       <c r="N8">
-        <v>31.3689508115999</v>
+        <v>0.07338500000000001</v>
       </c>
       <c r="O8">
-        <v>0.9861974251902772</v>
+        <v>0.0007616354434881705</v>
       </c>
       <c r="P8">
-        <v>0.9861974251902772</v>
+        <v>0.0007616354434881706</v>
       </c>
       <c r="Q8">
-        <v>2756.743255432738</v>
+        <v>141.1896464634789</v>
       </c>
       <c r="R8">
-        <v>2756.743255432738</v>
+        <v>1270.70681817131</v>
       </c>
       <c r="S8">
-        <v>0.01479041476632663</v>
+        <v>0.0007481476066449397</v>
       </c>
       <c r="T8">
-        <v>0.01479041476632663</v>
+        <v>0.0007481476066449399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>87.8812706229666</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H9">
-        <v>87.8812706229666</v>
+        <v>17315.620606</v>
       </c>
       <c r="I9">
-        <v>0.01499741774672851</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J9">
-        <v>0.01499741774672851</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.439032063175467</v>
+        <v>0.4826403333333333</v>
       </c>
       <c r="N9">
-        <v>0.439032063175467</v>
+        <v>1.447921</v>
       </c>
       <c r="O9">
-        <v>0.01380257480972275</v>
+        <v>0.01502743003298815</v>
       </c>
       <c r="P9">
-        <v>0.01380257480972275</v>
+        <v>0.01502743003298815</v>
       </c>
       <c r="Q9">
-        <v>38.58269555608258</v>
+        <v>2785.738967051125</v>
       </c>
       <c r="R9">
-        <v>38.58269555608258</v>
+        <v>25071.65070346013</v>
       </c>
       <c r="S9">
-        <v>0.0002070029804018839</v>
+        <v>0.01476130858841654</v>
       </c>
       <c r="T9">
-        <v>0.0002070029804018839</v>
+        <v>0.01476130858841654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.272029666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.816089</v>
+      </c>
+      <c r="I10">
+        <v>0.0002164813950916887</v>
+      </c>
+      <c r="J10">
+        <v>0.0002164813950916887</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.09233266666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.276998</v>
+      </c>
+      <c r="O10">
+        <v>0.002874858548413657</v>
+      </c>
+      <c r="P10">
+        <v>0.002874858548413658</v>
+      </c>
+      <c r="Q10">
+        <v>0.1174498912024445</v>
+      </c>
+      <c r="R10">
+        <v>1.057049020822</v>
+      </c>
+      <c r="S10">
+        <v>6.223533892518557E-07</v>
+      </c>
+      <c r="T10">
+        <v>6.223533892518558E-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.272029666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.816089</v>
+      </c>
+      <c r="I11">
+        <v>0.0002164813950916887</v>
+      </c>
+      <c r="J11">
+        <v>0.0002164813950916887</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>31.51785566666667</v>
+      </c>
+      <c r="N11">
+        <v>94.553567</v>
+      </c>
+      <c r="O11">
+        <v>0.9813360759751099</v>
+      </c>
+      <c r="P11">
+        <v>0.98133607597511</v>
+      </c>
+      <c r="Q11">
+        <v>40.09164743771811</v>
+      </c>
+      <c r="R11">
+        <v>360.824826939463</v>
+      </c>
+      <c r="S11">
+        <v>0.0002124410027808952</v>
+      </c>
+      <c r="T11">
+        <v>0.0002124410027808952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.272029666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.816089</v>
+      </c>
+      <c r="I12">
+        <v>0.0002164813950916887</v>
+      </c>
+      <c r="J12">
+        <v>0.0002164813950916887</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02446166666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.07338500000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.0007616354434881705</v>
+      </c>
+      <c r="P12">
+        <v>0.0007616354434881706</v>
+      </c>
+      <c r="Q12">
+        <v>0.03111596569611111</v>
+      </c>
+      <c r="R12">
+        <v>0.280043691265</v>
+      </c>
+      <c r="S12">
+        <v>1.648799033575962E-07</v>
+      </c>
+      <c r="T12">
+        <v>1.648799033575962E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.272029666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.816089</v>
+      </c>
+      <c r="I13">
+        <v>0.0002164813950916887</v>
+      </c>
+      <c r="J13">
+        <v>0.0002164813950916887</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4826403333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.447921</v>
+      </c>
+      <c r="O13">
+        <v>0.01502743003298815</v>
+      </c>
+      <c r="P13">
+        <v>0.01502743003298815</v>
+      </c>
+      <c r="Q13">
+        <v>0.6139328223298889</v>
+      </c>
+      <c r="R13">
+        <v>5.525395400969</v>
+      </c>
+      <c r="S13">
+        <v>3.253159018184016E-06</v>
+      </c>
+      <c r="T13">
+        <v>3.253159018184016E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>93.67702500000001</v>
+      </c>
+      <c r="H14">
+        <v>281.031075</v>
+      </c>
+      <c r="I14">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="J14">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.09233266666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.276998</v>
+      </c>
+      <c r="O14">
+        <v>0.002874858548413657</v>
+      </c>
+      <c r="P14">
+        <v>0.002874858548413658</v>
+      </c>
+      <c r="Q14">
+        <v>8.649449523650002</v>
+      </c>
+      <c r="R14">
+        <v>77.84504571285002</v>
+      </c>
+      <c r="S14">
+        <v>4.583243263229513E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.583243263229513E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>93.67702500000001</v>
+      </c>
+      <c r="H15">
+        <v>281.031075</v>
+      </c>
+      <c r="I15">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="J15">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>31.51785566666667</v>
+      </c>
+      <c r="N15">
+        <v>94.553567</v>
+      </c>
+      <c r="O15">
+        <v>0.9813360759751099</v>
+      </c>
+      <c r="P15">
+        <v>0.98133607597511</v>
+      </c>
+      <c r="Q15">
+        <v>2952.498953232725</v>
+      </c>
+      <c r="R15">
+        <v>26572.49057909453</v>
+      </c>
+      <c r="S15">
+        <v>0.01564495046776765</v>
+      </c>
+      <c r="T15">
+        <v>0.01564495046776765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>93.67702500000001</v>
+      </c>
+      <c r="H16">
+        <v>281.031075</v>
+      </c>
+      <c r="I16">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="J16">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02446166666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.07338500000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.0007616354434881705</v>
+      </c>
+      <c r="P16">
+        <v>0.0007616354434881706</v>
+      </c>
+      <c r="Q16">
+        <v>2.291496159875001</v>
+      </c>
+      <c r="R16">
+        <v>20.62346543887501</v>
+      </c>
+      <c r="S16">
+        <v>1.214237311721015E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.214237311721015E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>93.67702500000001</v>
+      </c>
+      <c r="H17">
+        <v>281.031075</v>
+      </c>
+      <c r="I17">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="J17">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4826403333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.447921</v>
+      </c>
+      <c r="O17">
+        <v>0.01502743003298815</v>
+      </c>
+      <c r="P17">
+        <v>0.01502743003298815</v>
+      </c>
+      <c r="Q17">
+        <v>45.212310571675</v>
+      </c>
+      <c r="R17">
+        <v>406.910795145075</v>
+      </c>
+      <c r="S17">
+        <v>0.0002395748044729037</v>
+      </c>
+      <c r="T17">
+        <v>0.0002395748044729038</v>
       </c>
     </row>
   </sheetData>
